--- a/downloads/paises_cmd_top5_2021.xlsx
+++ b/downloads/paises_cmd_top5_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrc/Library/CloudStorage/GoogleDrive-joaquim.carvalho@gmail.com/My Drive/CIPF-interno/Outputs/Dados CN-PLP/Fontes estatísticas/Exemplos/comtradeplus.un.org/api/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14D89A-049C-BB42-B2C9-964070D45BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6203DBE3-F072-8942-8BB8-ECCDC4B79F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="53260" windowHeight="31900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
